--- a/FelipeNetoNaiveBayes_1.xlsx
+++ b/FelipeNetoNaiveBayes_1.xlsx
@@ -22,362 +22,375 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>@decroid na real n preciso e nem to mt interessado, gosto mt de fzr as minhas
-mas sorte ai p algum dia virar thumbmaker do felipe neto</t>
-  </si>
-  <si>
-    <t>vendo meus tios chamar felipe neto de vagabundo por causa do q ele fez na bienal nunca me deu tanta vontade de dizer mil e uma coisas pra eles naquela merda de grupo</t>
-  </si>
-  <si>
-    <t>estou buscando meu sobrinho, ele começa a falar de felipe neto e minha tia:
-_ esse cara fala demais, pra que falar tanto?
-_ ué, direito de todo mundo falar. ele tá até sendo ameaçado de morte pelos bolsominions
-_ ah, aposto que é petista querendo sujar a imagem do bolso
-bicho??</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/psn7aclwwh</t>
-  </si>
-  <si>
-    <t>a pessoa colhe o que planta. https://t.co/ie7llax0bb</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/3ubeyuxzzz</t>
-  </si>
-  <si>
-    <t>sabem qual é a diferença entre o felipe neto e o jean ui ui. nenhuma. ambos são cagões. agora só falta ele fugir também.</t>
-  </si>
-  <si>
-    <t>@lenoraburgatti @alinetosin marielle foi morta por pessoas envolvidas com o tráfico na região onde ocorreu o local (suspeitos ja foram presos)
-a mãe do felipe neto mora em portugal a anos
-vc tem total liberdade pra chamar o governo de ditadura sem sofrer represálias
-sim, vc é um ser deveras pensante...</t>
-  </si>
-  <si>
-    <t>@claysonfelizola @felipeneto todos esses adjetivos ditos aí, é claramente a pessoa do felipe neto! uma coisa à ser esclarecida: o nando não tinha conhecimento este sujeito estava sobe supostos ataques e ameaças de vida! felipe por sua vez, aproveitou para se vitimirar! dissimulado!</t>
-  </si>
-  <si>
-    <t>@vudark felipe neto? nunca ouvir falar 
-ouvir falar do nelipe feto</t>
-  </si>
-  <si>
-    <t>paulo coelho era amigo do raul seixas
-hoje puxa o saco do felipe neto
-que decadência...</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/1hpssymj3c</t>
-  </si>
-  <si>
-    <t>frostt tá se tornando o felipe neto só que preto https://t.co/pd6ykeptow</t>
-  </si>
-  <si>
-    <t>@gleisi @felipeneto felipe neto dando palestra de educação kkkkkkkkkk só fala merda na internet,vai ensinar o que kkkkkkk</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/ujimxfx4ot</t>
-  </si>
-  <si>
-    <t>@mulambodiego felipe neto?</t>
-  </si>
-  <si>
-    <t>ameaça de morte faz felipe neto tirar a mãe do brasil https://t.co/lr04vlg6rr</t>
-  </si>
-  <si>
-    <t>hmm felipe neto queijo suiço https://t.co/1wsfeljtxf</t>
-  </si>
-  <si>
-    <t>gosto muito do felipe neto mas maior receio de ser jogada de marketing as coisas q ele faz/fala</t>
-  </si>
-  <si>
-    <t>@alinetosin marielle morreu porque estava envolvida com o tráfico, cv mais precisamente. 
-a mãe do felipe neto está fora desde 2017, pode ver no próprio twitter dele.
-ditadura em que o governo abre o mercado, reduz imposto, facilita a vida dos mais pobres. blz.</t>
-  </si>
-  <si>
-    <t>@brunofabil gravou com o felipe neto?</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/hxy2gecr9u</t>
-  </si>
-  <si>
-    <t>@mitalo_ammon1 @brancosemsal o felipe neto ja foi sensato hoje???? 😍😍😍😍</t>
-  </si>
-  <si>
-    <t>felipe neto relata ameaças e recebe apoio; paulo coelho dedica texto ao youtuber  https://t.co/5w3ja6umjz</t>
-  </si>
-  <si>
-    <t>@bfrmilgrau coxinha do felipe neto era fraquinha, agora vai ter pastel de frango e calne com catupili malandragem kkkkkk</t>
-  </si>
-  <si>
-    <t>o felipe neto quis dar uma lacrada. hoje ele usa fraldas com medo de sair as ruas. e depois não querem que a gente caia na gargalhada.</t>
-  </si>
-  <si>
-    <t>@paulomarcos644 @_eduardomatos @felipeneto @vitorma80809124 mesmo em forma de piada isso se torna burrice.
-pois se voce ja assistiu o filme do pelé voce deveria deixar seu filho longe dele.
-e se você ja assistiu felipe neto iria ver que de forma indireta se aprende coisas que nem as escolas ensinam.
-quando for fazer piada...nao seja burro</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/gn53ihza2v</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/fp5tvtysuo</t>
-  </si>
-  <si>
-    <t>exclusivo: jean wyllys (@jeanwyllys_real) comenta sobre o caso felipe neto, reações sobre sua  ida a harvard e fake news. confira entrevista completa: https://t.co/1deu9u0kwz</t>
-  </si>
-  <si>
-    <t>felipe neto, deixa de ser dissimulado! https://t.co/mdp7exknbi via @youtube</t>
-  </si>
-  <si>
-    <t>ao invés de vcs ficarem buscando pessoas "formadoras de opinião" como vocês tem coragem de chamar o tal do felipe neto, porque vocês não constroi a opinião própria de vocês? sem buscar influência no que uma outra pessoa acha ?!</t>
-  </si>
-  <si>
-    <t>@stanleyburburin nunca dou rt para e isso vale para felipe neto, kim, tabata, noblat, mleitão, reinaldo, cantanhêde 
-estes últimos, jornalistas, e o tal felipe, estão por agora do lado de cá, mas 3, 2, 1 minutos voltam para o lado golpista.</t>
-  </si>
-  <si>
-    <t>felipe neto fez meu filho virar gay!
-👇 👇 👇 👇 
-https://t.co/kl8etjsiz4
-#paiscontrafelipeneto https://t.co/jhqaum7ukw</t>
-  </si>
-  <si>
-    <t>@gleisi @felipeneto espero que o felipe neto tenha aprendido o que é um governo democrático.</t>
-  </si>
-  <si>
-    <t>sinto mt por felipe neto ter q fazer a mãe deixar o país pq está sofrendo ameaças desse governo ditatorial.
-eu posso me cegar e fingir q as jornadas de junho de 2013 não houveram repressões pesadas, q rafael braga foi preso tb no governo do pt, q tb foi ditatorial...
-mas n vou.</t>
-  </si>
-  <si>
-    <t>olha como funciona as coisas né 
-na época que felipe neto tava pegando pesado nas piadas e coisas q eu n achava certo, conversei com a minha mãe sobre isso, sobre ela observar o que minha irmã pequena andava vendo no yt e ela simplesmente cagou pra mim</t>
-  </si>
-  <si>
-    <t>@saturnshawnurie felipe neto fez meu filho virar gay!
-👇 👇 👇 👇 
+    <t>@cpbomfa @ferreirajango @rogeriocorreia_ @liliandematosl1 o proprio pt ajudou a fomentar o antipetismo, seja através de mensalão, seja através de petrolão. sem contar as alianças com o que tem de mais sujo: políticos como cunha, temer, maluf; empreiteiros como odebrech. a culpa deve ser do @felipeneto felipe neto mesmo.</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/zdsga5egbo</t>
+  </si>
+  <si>
+    <t>torcendo pela tecnologia black mirror preu poder bloquear a imagem de felipe neto para sempre</t>
+  </si>
+  <si>
+    <t>ja vi duas publicações do tipo "protejam seus filhos do felipe neto" ou seja, ele ta no caminho certo pq o gado ja ta se ofendendo</t>
+  </si>
+  <si>
+    <t>@cronauta @haddaddebochado hahahha
+foda né moleque. pior que essa semana eu vi algum gado reclamando de apelo emocional do felipe neto</t>
+  </si>
+  <si>
+    <t>@pessegocomaids nn bicho, vc não se deve mudar pra agradar as pessoas, se não tu vai virar um felipe neto da vida</t>
+  </si>
+  <si>
+    <t>@patrlotas por acaso tem como eu abrir um processo contra felipe neto? eu sou eleitor do presidente bolsonaro quero que ele prove essas ameaças.</t>
+  </si>
+  <si>
+    <t>@sofiasantinoo homens:
+orochinho
+felipe neto
+luba 
+neagle
+mulheres:
+nalim
+bela almada
+camila loures
+mariana santos</t>
+  </si>
+  <si>
+    <t>acabei de defender o @felipeneto de uma fake news, e eu nem sou fã do cara, mas vou defender sempre o ato dele na bienal. é nóis felipe neto</t>
+  </si>
+  <si>
+    <t>felipe neto, deixa de ser dissimulado! https://t.co/a802iqdoww via @youtube</t>
+  </si>
+  <si>
+    <t>quem diria que eu ia aplaudir em pé o felipe neto, juro chocada</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/dh5d2kzqkm</t>
+  </si>
+  <si>
+    <t>terra plana, felipe neto, petismo: qual dos 3 assuntos possui o maior nível de demência?</t>
+  </si>
+  <si>
+    <t>@marqueszero felipe neto</t>
+  </si>
+  <si>
+    <t>eu rezo todas as noite para meu filho nao ver esse felipe neto</t>
+  </si>
+  <si>
+    <t>@fabriciodias_ @cirogomes @jujuca1987 era minha segunda opção 
+mas o felipe neto pelo momento e pelo alcance da plataforma dele seria fantástico</t>
+  </si>
+  <si>
+    <t>sempre soube!!! https://t.co/6glf0uy4dq</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/zydpmu1jfo</t>
+  </si>
+  <si>
+    <t>@gleisi @indinhona @felipeneto dá licença hein...felipe neto vivia criticando a "ditadura petista". tá colhendo o que plantou.</t>
+  </si>
+  <si>
+    <t>solano criticaaaaa felipe neto. sabe que eu odeio?? são pessoas que são mente fechada, nem conhece o trabalho dele e fica falando merda. e ainda pior criticando os lgbts @felipeneto https://t.co/1mleyqqutr</t>
+  </si>
+  <si>
+    <t>sentei do lado de um milico e ele tá vendo vídeo do felipe neto, configura resistência?</t>
+  </si>
+  <si>
+    <t>@sofiasantinoo lucas lira e felipe neto</t>
+  </si>
+  <si>
+    <t>felipe neto diz que o bolsonaro tá com med0 dele e por isso não responde... https://t.co/44q7dzttdg via @youtube</t>
+  </si>
+  <si>
+    <t>queria fazer o bolo da julia agora mas sem cacau em pó 
+e o felipe neto não faz nada sobre isso !</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/4a0qsliw23</t>
+  </si>
+  <si>
+    <t>eu achu toooda esses rolê do felipe neto uma fachadaa seeem fim, “aaah mas ele tá conscientizando bastante criança (o público dle hj em dia) a não crescer tão preconceituosa e pá”, pô bacana pras pessoa, “aaah mas ele faz doação e procura ajudar e as pessoas mudam né?” continua+</t>
+  </si>
+  <si>
+    <t>não preciso nem dizer nada! https://t.co/ycwtk7vrvs</t>
+  </si>
+  <si>
+    <t>@lavajato666 @karlava32508121 é?😳
+felipe neto 🖕😠 vtnc</t>
+  </si>
+  <si>
+    <t>a criançada que gosta do felipe neto já vai poder votar nas próximas eleições? #medo 
+o cara já marketando demais, cheiro de candidatura pela "liberdade"
+populismo é uma desgraça!</t>
+  </si>
+  <si>
+    <t>um psicólogo que eu fiz um treinamento maravilhoso compartilhando matéria bolsominion contra felipe neto com todas as fake news possíveis e com a legenda do post "anos de educação e trabalho, pra vir um moleque e deturpar tudo" 😭</t>
+  </si>
+  <si>
+    <t>me irrito com esse negócio do felipe neto</t>
+  </si>
+  <si>
+    <t>@etcontroverso @maurorosa14 esse felipe neto é má influência para os adolescentes e crianças. abriu espaço para que inocentes acessassem conteúdo produzido por pedófilos. disse que não foi a intenção. de boas intenções, o inferno está cheio. um irresponsável desses não merece ser visto por ninguém.</t>
+  </si>
+  <si>
+    <t>@alinetosin bolsonaro é ameaçado 24 hrs, por facções criminosas e esquerdistas, inclusive tomou uma facada, agora felipe neto fala que sofre ameaças, e não mostra nenhuma prova e vem a menina escrever que começo a ditadura, faça me rir.</t>
+  </si>
+  <si>
+    <t>@foxzaox @willsouzafn e o outro felipe neto</t>
+  </si>
+  <si>
+    <t>mano eu amooo o felipe neto vey</t>
+  </si>
+  <si>
+    <t>gente para de reclamar que o felipe neto é "óbvio demais", está fazendo "pela lacração", que saco vocês querem parecer mais inteligentes mas só fazem desserviço reclamando, inacreditável</t>
+  </si>
+  <si>
+    <t>@cdnleon felipe neto fez meu filho virar gay! 
+👇 
 https://t.co/kl8etjsiz4</t>
   </si>
   <si>
-    <t>minha mãe vindo mostrar "notícia" de um youtuber perigoso que não é pra assistir (felipe neto)
-auge</t>
-  </si>
-  <si>
-    <t>bicho eu vou dar uma sequência de rt da sequência de surra q a dep carla levou, foi tuitar um vídeo do felipe neto de dez anos atrás e simplesmente se ferrou</t>
-  </si>
-  <si>
-    <t>@moura_101 este lixo só esta do lado do............felipe neto !! o projeto dele se chama..........felipe neto. é um imbecil, um tremendo fanfarão que muda de bandeira como outros mudam a roupa. é claro que a esquerda procura um psicopata como ele para trazer um monte de imbecis junto !</t>
-  </si>
-  <si>
-    <t>@brasil247 @89nuncamais alguém pode perguntar ao felipe neto se, por criticar o pt, quando o pt governava o país, ele teve que tirar a mãe dele do brasil?</t>
-  </si>
-  <si>
-    <t>eu sonhei com o felipe neto????</t>
-  </si>
-  <si>
-    <t>fui abrir uma publicação onde uma psicóloga fala que o felipe neto é má influência para crianças e me deparo com essa mãe?????? amada??????
-melhor é a resposta dela totalmente hipócrita de "pessoa do bem" https://t.co/xumkmeeacu</t>
-  </si>
-  <si>
-    <t>tô com uma peninha do felipe neto que vou te contar,nossa,não vou mais viver a vida por isso.
-mas como diria o grande comediante léo lins e sua impagável imitação de jair bolsonaro:
-"basta a gente olhar pro felipe neto que já é uma apologia lgbt,é um tremendo pau no cú." https://t.co/ecirszqtez</t>
-  </si>
-  <si>
-    <t>felipe neto e o direito de amadurecer https://t.co/cd5n1rnmb8 via @youtube @felipeneto</t>
-  </si>
-  <si>
-    <t>@kaillerluis se livrar do jean wyllys, márcia tiburi e felipe neto no mesmo ano</t>
-  </si>
-  <si>
-    <t>felipe neto, deixa de ser dissimulado! https://t.co/hz1htpqeh2 via @youtube</t>
-  </si>
-  <si>
-    <t>@uolnoticias qualquer ameaça, violência, é ruim. não somente a mãe dele, mas a ele tb. óbvio! 
-entretanto, ele erra ao generalizar os "bolsonaristas" uns não gostam dele, outros são indiferentes e por ai vai. conheço pessoas avessas ao bolsonaro q não gostam do felipe neto.</t>
-  </si>
-  <si>
-    <t>@otempo blz, quem e felipe neto....</t>
-  </si>
-  <si>
-    <t>oh meus queridos, o mínimo que se espera é uma boa investigação sobre os fatos. coisa que não há nem nessa matéria e em outra qualquer que já vi sobre o assunto. triste https://t.co/ijvfsc0gme</t>
-  </si>
-  <si>
-    <t>fodase quando fui ver quem eu parecia no starbyface saiu o felipe neto eu não irei mostrar meu rosto na rua nunca mais</t>
-  </si>
-  <si>
-    <t>felipe neto, deixa de ser dissimulado! https://t.co/c9cpg6fywy via @youtube</t>
-  </si>
-  <si>
-    <t>e o segurança do felipe neto pediu demissão faz tempo, então?</t>
-  </si>
-  <si>
-    <t>@fellipebambam @felipeneto @gretaprogress cara, o felipe neto tem mais de 30kk de seguidores ainda. tu acha que ele vai se abalar por causa de minion filho duma puta que nem tu? vai se foder arrombado.</t>
-  </si>
-  <si>
-    <t>2019 ano em que felipe neto se tornou ídolo nacional</t>
-  </si>
-  <si>
-    <t>@avozdojusto @uol mano, eu não sou fã do felipe neto, mas o acompanhei quando era mais novo, e ele não era rico, deu explicações e mostrou como era a vida dele, hj ele tem oq tem por mérito, algo q esse governo tanto defende, e ao msm tempo dificulta com essas políticas bizonhas.</t>
-  </si>
-  <si>
-    <t>pais contra felipe neto - a treta da bienal https://t.co/qjoyyu9luq</t>
-  </si>
-  <si>
-    <t>nosso filho. nosso felipe. nosso neto.</t>
-  </si>
-  <si>
-    <t>vindo do maluco q fez um video falando q ia come 2 bife no lugar de 1 pq o felipe neto se declarou vegetariano eu espero q tenha sido p ele mesmo https://t.co/eq2mdsee0r</t>
-  </si>
-  <si>
-    <t>pais, atenção! https://t.co/vrgsviac57</t>
-  </si>
-  <si>
-    <t>@alvaroluaan fofo parece o felipe neto</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/kd55u8n4wz</t>
-  </si>
-  <si>
-    <t>99% das pessoas que ainda falam mal do felipe neto são pessoas que nunca nem assistiram nada do conteúdo dele ou que n conseguem aguentar o fato de que uma pessoa que tinha uma mente fechada antes faz mt mais em relação a questões importantes do que quem devia tá fazendo</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/etenuunhkd</t>
-  </si>
-  <si>
-    <t>sobre jean willy, felipe neto, talíria e outros mentirosos...
-eles são o personagem 1.
-a mídia é o personagem 2.
-você é o personagem 3.
-o terceiro, da patota dos dois primeiros, é o personagem número 4.
-https://t.co/4xtandtwsb</t>
-  </si>
-  <si>
-    <t>felipe neto não é uma má influência ao meu filho! quanto pai acompanho os vídeos e sempre converso sobre as situações vistas lá. agora, difamar o youtuber por ter distribuído o livro que tem o beijo gay é uma atitude frustrante e mesquinha da direita homofóbica.</t>
-  </si>
-  <si>
-    <t>@yorunomusume_ felipe neto</t>
-  </si>
-  <si>
-    <t>aguardo coleção das manifestações de felipe neto contra o pt, pró-golpe, a favor da prisão de lula, e tudo que ele disse enquanto havia democracia, e hoje, sob essa ditadura mal disfarçada, sofre as ameaças das quais debochou quando o ameaçado não era ele. há muitas.</t>
-  </si>
-  <si>
-    <t>não sei o que tá chegando na timeline de vocês mas aqui é: felipe neto ameaçado por oposição política, ancine retira apoio de filmes por motivos ideológicos, censura de peças de teatros, demissão de chefes de cargos por discordâncias gerais....</t>
-  </si>
-  <si>
-    <t>acho que o felipe neto, quando abre o olho de manhã, fica pensando no que ele vai fazer para aparecer. aí só depois levanta da cama.</t>
-  </si>
-  <si>
-    <t>@launcastro felipe neto me deixe em paz me deixe em paz agora https://t.co/mcgxbekk3l</t>
-  </si>
-  <si>
-    <t>após ameaças de morte de bolsonaristas, felipe neto tira sua mãe do brasil:
-https://t.co/dfdpeqay6z https://t.co/tscrw07uoh</t>
-  </si>
-  <si>
-    <t>@lets_dex assim porra, tem q falar grosso com esses vermes, os caras se fazem de coitados, esse papo do felipe neto é pura enrolação, o cara deve tá com a pf no cangote e tá se cagando todo</t>
-  </si>
-  <si>
-    <t>alguem me diz pq ta todo mundo contra felipe neto? hj eu ja li q ele é usado pelo diabo, que ele é má influência, q ele é o lider da resistência, q o canal dele tem conteúdo racista homofobico machista e impróprio pra 18</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/iqfwn6qotx #bandnews #redetvnews #rederecord #cnn #bbc #sbt</t>
-  </si>
-  <si>
-    <t>desde quando comprou e distribuiu gratuitamente 14 mil exemplares com a temática lgbtq, felipe neto vem recebendo todo tipo de ameaças.
-https://t.co/rttpkezixy</t>
-  </si>
-  <si>
-    <t>aguardando felipe neto comprar os cinemas pra passar marighella!</t>
-  </si>
-  <si>
-    <t>@felipeneto felipe neto eu sou seu inscrito isso que eles fizeram com vc essas ameaças e injustiça pq vc e uma boa pessoa boa sorte</t>
-  </si>
-  <si>
-    <t>3. felipe neto</t>
-  </si>
-  <si>
-    <t>felipe neto, deixa de ser dissimulado! https://t.co/93ianjwlvn via @youtube</t>
-  </si>
-  <si>
-    <t>@rafael_fr2 @isabexvz @simonerj_br e ele ta protegendo da censura contra lgbt, se ganhar dinheiro com isso qual o problema?? a polícia, bombeiros tb ganham dinheiro por nós proteger, e o felipe neto nunca pediu nada, só para ir buscar um livro grátis</t>
-  </si>
-  <si>
-    <t>sempre achei, desde o primeiro vídeo que vi. https://t.co/lbvdvtmz9i</t>
-  </si>
-  <si>
-    <t>3. catarina tourinho, uni e felipe neto</t>
-  </si>
-  <si>
-    <t>@estadohir4mico olha o que saiu no jornal aqui no rio...
-https://t.co/93nckph6yk</t>
-  </si>
-  <si>
-    <t>@cowiboy nosso felipe nosso neto</t>
-  </si>
-  <si>
-    <t>@rogeriocorreia_ acreditar no felipe neto é o mesmo que acreditar que o lula é inocente kkkkkk</t>
-  </si>
-  <si>
-    <t>sonhei que eu e o felipe neto estávamos combatendo a censura nas escolas, te amo mo @felipeneto</t>
-  </si>
-  <si>
-    <t>que época louca essa em que a gente concorda com veja, felipe neto e datena.</t>
-  </si>
-  <si>
-    <t>"segundo a psicóloga, @felipeneto "ensina crianças falarem palavrão, desrespeitar os pais na tentativa de promover claramente os movimentos lgbtts, erotizando e por vezes desconstruindo a moral, as tradições das crianças" ". kkkkkk🤣🤣
-https://t.co/uxoayvak27</t>
-  </si>
-  <si>
-    <t>pois o maior fato da vida é que as pessoas odeiam os outros, mas na hr da explicação, ela se cala... felipe neto nunca foi na sua casa atirar na sua cabeça, ele nunca fez nada demais, é um cara que amadureceu pra crl, que é a favor de todo mundo seguir o que achar melhor.... https://t.co/1dfqftpk1c</t>
-  </si>
-  <si>
-    <t>@youtube todas as pessoas tem o direito de amadurecer, ampliando seus horizontes e revendo seus conceitos. esse é o caso do felipe neto, que está sendo covardemente atacado por imbecis que usam seu passado para desqualificá-lo.</t>
-  </si>
-  <si>
-    <t>é sério msm que tem pais que realmente acreditam que o felipe neto é má influência pros filhos? kkkkk mal sabem eles que a gente aprende merda é com os coleguinhas da escola</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/mxe4f4lgvw</t>
-  </si>
-  <si>
-    <t>felipe neto criticou o pt por 10 anos e nunca recebeu ameacas, agora criticando o governo bolsonaro, aparece gente até do inferno pra fazer ameaças a ele. depois são os mesmo que reclamam de esquerdistas e falam de "bons costumes" ah, vão tomar no cu, seus gados! https://t.co/gbu2ynpyj1</t>
-  </si>
-  <si>
-    <t>esquerdistas distraídos já se esqueceram do golpe, perdoaram os golpistas e acham que bolsonaro representa o mal e é nosso único inimigo. 
-esse maniqueísmo tosco, só serve para entregar espaço na bolha de esquerda para golpistas como felipe neto.
-https://t.co/z0vralirnq https://t.co/pjzyfcv3hf</t>
-  </si>
-  <si>
-    <t>@moura_101 você está é com dor de cotovelo você não é nem metade do homem que o @felipe neto é</t>
-  </si>
-  <si>
-    <t>a criança fora da faixa de pedestre me vê chegando a 1 metro com o carro a mil por hora e pensa:
-"foda-se acho que dá pra passar"
-vê se eu tenho cara de felipe neto pra ficar de paciência com criança encapetada</t>
-  </si>
-  <si>
-    <t>@jordamyuri maluma felipe neto</t>
-  </si>
-  <si>
-    <t>dá vontade de por textão, mas resumir que "educação começa em casa e se estende na escola. entretenimento é pura diversão" resume essa merda de reportagem contra @felipeneto https://t.co/9ixgtvg3xt</t>
+    <t>nessa opiniao do felipe neto , eu sou obrigado a concorda . 👏 https://t.co/osjjmf92db</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/1geqyyiy7p</t>
+  </si>
+  <si>
+    <t>meu auge foi ter defendido o felipe neto hoje</t>
+  </si>
+  <si>
+    <t>"estão rindo das ameaças", desabafa felipe neto sobre tirar mãe do brasil - isto - https://t.co/fwfe55cqga</t>
+  </si>
+  <si>
+    <t>@degantunes é so ir la no perfil do felipe neto e xingar ele..de 4 a 7 dias kkkk</t>
+  </si>
+  <si>
+    <t>infelizmente, as fakes news de felipe neto são reais https://t.co/1ffkfjteac</t>
+  </si>
+  <si>
+    <t>se alguém tiver o video dessa psicóloga falando que o felipe neto é uma má influência, por favor, mande na dm.</t>
+  </si>
+  <si>
+    <t>@akemibbh oao, idêntico, só tinha que ser mais birl e usar um óculos estilo felipe neto, usar um jeans e uma camiseta preta</t>
+  </si>
+  <si>
+    <t>@ggreenwald @felipeneto @yeshuah_17 perde um tempinho e pesquisa quem realmente está de posse dessa " fakenews". o felipe neto falou ontem,  que tirou a mãe dele do país .. pesquisa amigo,.ainda dá tempo de não passar vergonha ou ser confundido com um robozinho</t>
+  </si>
+  <si>
+    <t>olha o fã incubado do felipe neto ai gente https://t.co/5pvppyybzs</t>
+  </si>
+  <si>
+    <t>@doisdedosdeteo olha eu não posso dizer q é mentira, porém n acredito em tudo q o felipe neto diz. mas se for verdade ele realmente vai fazer um bo na polícia e deixar provado aí sim eu acreditarei</t>
+  </si>
+  <si>
+    <t>felipe neto a perguntar que não quer calar:
+queres que eu chame os vingadores pra virem te apoiar?
+ou queres que eu chame o pessoal da turma do scooby doo?
+se quiseres também posso mandar chamar as "três espiãs demais."
+toda ajuda é bem vinda quando se está sob ameaça. https://t.co/vyxrc0kljr</t>
+  </si>
+  <si>
+    <t>acompanhei o felipe neto;
+detestei a mudança do felipe neto;
+xinguei o felipe neto;
+concordo com o felipe neto;
+admiro as atitudes do felipe neto;
+apoio o felipe neto;
+ o ciclo da minha vida em relação ao felipe neto nos dias de hoje 
+bolsonaro é o caralho</t>
+  </si>
+  <si>
+    <t>felipe neto e o direito de amadurecer https://t.co/ard2xb640j via @youtube</t>
+  </si>
+  <si>
+    <t>@exame quem é felipe neto?</t>
+  </si>
+  <si>
+    <t>felipe neto https://t.co/zncsfgnsju</t>
+  </si>
+  <si>
+    <t>felipe neto é um merda , mas o problema é o celular 24 hrs por dia na mão da criança</t>
+  </si>
+  <si>
+    <t>nessa altura do campeonato farei oq nunca pensei que faria
+seguir o felipe neto e elogiar ele
+as voltas do mundo vei</t>
+  </si>
+  <si>
+    <t>@felipeneto eu nem sei quem é o nando moura e nem quero saber.
+só tenho uma coisa a dizer,felipe neto tudo isso é , recalque viu sucesso e paz pra você 🙏🙏😍</t>
+  </si>
+  <si>
+    <t>felipe neto, deixa de ser dissimulado! https://t.co/ubmxlu9vls via @youtube</t>
+  </si>
+  <si>
+    <t>outra coisa, felipe neto não é para crianças, se vc permite que a sua assista, o irresponsável é vc 😉 https://t.co/j20oh1kcnb</t>
+  </si>
+  <si>
+    <t>pensa nisso especial sobre felipe neto e a censura
+https://t.co/jfrksdfp1a</t>
+  </si>
+  <si>
+    <t>@wilson80728326 @pedruh @ferozcarbon @felipeneto o próprio felipe neto disse que tem a casa desde 2017 (e disse depois que mostraram o vídeo). só estamos falando que a frase “minha mãe teve que sair do país e ficar longe de mim” ficou bem forçada. só isso.</t>
+  </si>
+  <si>
+    <t>mano se podem ameaçar o felipe neto (figura pública) e sairem ilesos imagina oq podem fazer com vc mero rostinho desconhecido</t>
+  </si>
+  <si>
+    <t>o bostinha do felipe neto é culpa da esquerda..
+crise? culpa da esquerda!
+jair presidente? culpa da esquerda!
+reforma da previdência? culpa da esquerda!
+reforma trabalhista? culpa da esquerda!
+amazônia em chamas? culpa da esquerda!
+...</t>
+  </si>
+  <si>
+    <t>o felipe neto tá parecendo o ei nerd nessa foto https://t.co/mkm89wxb21</t>
+  </si>
+  <si>
+    <t>felipe neto corre risco de fato ou é mais uma jogada de marketing? https://t.co/24wizbpn9a</t>
+  </si>
+  <si>
+    <t>não é sobre ser fã ou não do felipe neto. é sobre liberdade de expressão. https://t.co/kryznnvqk4</t>
+  </si>
+  <si>
+    <t>@mariadorosario @felipeneto esse felipe neto e você maria do rosário vocês tem que tomar vergonha na cara tá vocês tem que tomar jeito seus cambadas sem vergonha vocês não tem vergonha na cara</t>
+  </si>
+  <si>
+    <t>agora os fascistinha tao alertando os pais que o felipe neto eh má influência 👍grande dia👍</t>
+  </si>
+  <si>
+    <t>@felipeneto @midianinja fake news? 
+conar tira vídeo de felipe neto do youtube por propaganda irregular
+https://t.co/25rhblqw2s</t>
+  </si>
+  <si>
+    <t>felipe neto é obrigado a mandar a mãe para o exterior após ameaças de morte e desabafa sobre inimigos: “estão rindo” https://t.co/klfbeqbjlx https://t.co/lyavjejghp</t>
+  </si>
+  <si>
+    <t>@carblade @fabiohe2011 @caiolincoln_ @japadobolso @felipeneto ahhh tá! vc acha que isso é fonte? 😂😂😂😂queria ver um vídeo do felipe neto falando isso aí que vc inventou. podexá!</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/ofa29s0zjn</t>
+  </si>
+  <si>
+    <t>assuntos que não podem sair da pauta.
+o hacker da manu.
+o show do palocci.
+a delação do léo pinheiro.
+o choro do felipe neto.
+o choro do glenn.
+a cpi da lava toga.</t>
+  </si>
+  <si>
+    <t>pais não deixam seus filhos assistirem felipe neto pra que eles não possam adquirir opiniões diferentes das suas; eles preferem que seus filhos assistam a luccas pra ficarem imitando uma foca no meio da rua</t>
+  </si>
+  <si>
+    <t>ele poderia ser nosso filho. nosso felipe. nosso neto 
+rt se vc chorou</t>
+  </si>
+  <si>
+    <t>@priscilafcruz @felipeneto me perdoe, priscila. minhas filhas são da geração xuxa também. todas estudaram em colégios públicos e hoje tem pós-graduação.  não generalize, mesmo porque a geração felipe neto ainda está em formação.</t>
+  </si>
+  <si>
+    <t>será q o felipe neto faz terapia</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/gurx9yxdh4</t>
+  </si>
+  <si>
+    <t>@ramon_a_santana @jornaloglobo @felipeneto pelo jeito o ramon não tem coragem nem na net, ponto pro felipe neto né</t>
+  </si>
+  <si>
+    <t>felipe neto tem apoio de ampla rede de solidariedade https://t.co/8wcgpml3rj https://t.co/rhhdxr8xjn</t>
+  </si>
+  <si>
+    <t>felipe neto é criticado em rede sociais como : facebook, twitter, pessoas falam mal de felipe neto em que ele dá mals exemplos, youtube ira atualizar e canais infantis irá ficar sem monetização, lucas neto decide desabafar sobre atualização de youtube. https://t.co/6jv3zweobs</t>
+  </si>
+  <si>
+    <t>se chega ao ponto de uma psicóloga alertar sobre o perigo que felipe neto é pra sociedade e para crianças menores,quem somos nós meros mortais pra duvidar.
+vale a pena refletir e muito sobre o que essa psicóloga fala.
+só não vê quem não quer enxergar. https://t.co/6fthxxvqs5</t>
+  </si>
+  <si>
+    <t>velho, as pessoas estão achando normal o felipe neto ter que tirar a própria mãe do brasil por sofrer ameaças de pessoas de extrema direita. sério gente, se você pensa que ameaçar a vida de alguém é normal, ainda mais no âmbito político, procure um psicólogo urgente!</t>
+  </si>
+  <si>
+    <t>felipe neto mandou um vídeo pro luccas... morri</t>
+  </si>
+  <si>
+    <t>odeio essas pessoas que falam mal e mentiras sobre o felipe neto , esse pessoal nao tem nada mais importante para fazer , do que ficar falando mal da vida das pessoas ,para mim voces que critica o felipe neto , vocês tem inveja dele. deixa ele e a familia dele em paz @felipeneto</t>
+  </si>
+  <si>
+    <t>@viiderrotada @pedro_amigo23 @moura_101 @nhewk quanto a isso,o nando moura deixou claro hoje que não sabia do que se tratava.a zoação foi em relação ao texto do paulo coelho.e no mesmo video,o nando moura reservou seu direito de pôr em dúvida a existência dessas ameaças,dado o histórico de mentiras do felipe neto.</t>
+  </si>
+  <si>
+    <t>só se seus filhos forem alienados e não pensarem com a própria cabeça e ir pela opinião dos outros sem se impor e sem pensar sozinho ne https://t.co/poffvtqxdh</t>
+  </si>
+  <si>
+    <t>@chimggukv @_itsjuao @maikecaraio @filhomajeski @moura_101 @nhewk felipe neto tem que admitir que perdeu e se render aos pés de jesus. ele terá muito mais utilidade e relevância unindo-se ao povo de deus em vez de lutar contra ele.
+e para quem ainda não assistiu minha resposta (ainda que indireta) ao felipe neto:
+https://t.co/prceqqncnm</t>
+  </si>
+  <si>
+    <t>felipe neto é o maior marketeiro do br.</t>
+  </si>
+  <si>
+    <t>@aureliosjc tá dureza. tem uma turminha de esquerda feliz pq felipe neto foi ameaçado de morte e mandou a mãe pra fora.</t>
+  </si>
+  <si>
+    <t>2019 e os caras caindo nessa. 50 cent inventou no começo dos anos 2000: começou a falar mal do fat jor por aí, o imbecil respondeu, e o moeda ficou famoso. o youtuber minion anão andou fazendo com o pirulla, cauê, pc e felipe neto. a cada resposta, ficava mais famoso.</t>
+  </si>
+  <si>
+    <t>felipe neto é a demência em pessoa, namoraaal</t>
+  </si>
+  <si>
+    <t>tirou a mãe do brasil com o dinheiro dos trouxas!kkkkkkkk https://t.co/ghjtkgw3c7</t>
+  </si>
+  <si>
+    <t>chamar o felipe neto de petista é demais até pros minions... por favor, parem!</t>
+  </si>
+  <si>
+    <t>meu pai chegou em casa hj proibindo todo mundo de assistir felipe neto
+ok q ngm ia ve isso mesmo
+mas sabemos bem pq ele ta "proibindo" ne mores</t>
+  </si>
+  <si>
+    <t>maaaano kakakkakakakakakaa
+levi pro meu tio bolsomion: e aí, tio tá assistindo felipe neto??? 
+esse menino é muito meu irmão mesmo mds kakkakakakakakakakajkaakajj</t>
+  </si>
+  <si>
+    <t>terminei o livro do felipe neto agora eu tenho um novo livro favorito 
+diario de um banana: rodrick eh o cara me perdoa</t>
+  </si>
+  <si>
+    <t>entrei aq só pra ver qual foi a merda q o felipe neto postou hoje pra ter um pouco de humor o meu dia...</t>
+  </si>
+  <si>
+    <t>gente quem é que deseja a morte do felipe neto???</t>
+  </si>
+  <si>
+    <t>hoje eu tirei o dia pra defender do felipe neto. me julguem.</t>
+  </si>
+  <si>
+    <t>@viiderrotada @pedro_amigo23 @moura_101 @nhewk vale citar também que recentemente,se não me engano,ainda esse ano,o felipe neto disse em seu twitter,baseado em uma matéria do site panfletário dcm,que o nando moura estava sendo processado pelo ministério público,por racismo.</t>
   </si>
   <si>
     <t>Ama</t>
   </si>
   <si>
+    <t>Desrelacionado</t>
+  </si>
+  <si>
+    <t>Odeia</t>
+  </si>
+  <si>
     <t>Concorda</t>
   </si>
   <si>
-    <t>Desrelacionado</t>
-  </si>
-  <si>
     <t>Discorda</t>
-  </si>
-  <si>
-    <t>Odeia</t>
   </si>
 </sst>
 </file>
@@ -786,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -810,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -834,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -850,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -858,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -874,7 +887,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -882,7 +895,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -890,7 +903,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -898,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -914,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -922,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -970,7 +983,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -994,7 +1007,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1002,7 +1015,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1018,7 +1031,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1026,7 +1039,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1034,7 +1047,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1042,7 +1055,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1050,7 +1063,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1090,7 +1103,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1098,7 +1111,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1106,7 +1119,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1122,7 +1135,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1146,7 +1159,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1162,7 +1175,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1170,7 +1183,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1178,7 +1191,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1194,7 +1207,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1218,7 +1231,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1234,7 +1247,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1250,7 +1263,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1266,7 +1279,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1282,7 +1295,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1290,7 +1303,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1322,7 +1335,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1330,7 +1343,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1354,7 +1367,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1378,7 +1391,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1386,7 +1399,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1410,7 +1423,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1418,7 +1431,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1426,7 +1439,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1442,7 +1455,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1450,7 +1463,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1458,7 +1471,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1474,7 +1487,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1490,7 +1503,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1514,7 +1527,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1522,7 +1535,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1530,7 +1543,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1538,7 +1551,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1546,7 +1559,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/FelipeNetoNaiveBayes_1.xlsx
+++ b/FelipeNetoNaiveBayes_1.xlsx
@@ -22,375 +22,357 @@
     <t>Teste</t>
   </si>
   <si>
-    <t>@cpbomfa @ferreirajango @rogeriocorreia_ @liliandematosl1 o proprio pt ajudou a fomentar o antipetismo, seja através de mensalão, seja através de petrolão. sem contar as alianças com o que tem de mais sujo: políticos como cunha, temer, maluf; empreiteiros como odebrech. a culpa deve ser do @felipeneto felipe neto mesmo.</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/zdsga5egbo</t>
-  </si>
-  <si>
-    <t>torcendo pela tecnologia black mirror preu poder bloquear a imagem de felipe neto para sempre</t>
-  </si>
-  <si>
-    <t>ja vi duas publicações do tipo "protejam seus filhos do felipe neto" ou seja, ele ta no caminho certo pq o gado ja ta se ofendendo</t>
-  </si>
-  <si>
-    <t>@cronauta @haddaddebochado hahahha
-foda né moleque. pior que essa semana eu vi algum gado reclamando de apelo emocional do felipe neto</t>
-  </si>
-  <si>
-    <t>@pessegocomaids nn bicho, vc não se deve mudar pra agradar as pessoas, se não tu vai virar um felipe neto da vida</t>
-  </si>
-  <si>
-    <t>@patrlotas por acaso tem como eu abrir um processo contra felipe neto? eu sou eleitor do presidente bolsonaro quero que ele prove essas ameaças.</t>
-  </si>
-  <si>
-    <t>@sofiasantinoo homens:
-orochinho
+    <t>@deiviir6 @safetyyr6 pse achei q eu tava seguindo o felipe neto aqui</t>
+  </si>
+  <si>
+    <t>@ignorant_slave mano, esquece, eu vi o perfil da pessoa e ela dá rt em felipe neto, já dá para saber o porquê dela achar uma cena de comédia comparável a abuso de autoridade.</t>
+  </si>
+  <si>
+    <t>o auge é eu discutindo com a minha mãe por causa do felipe neto</t>
+  </si>
+  <si>
+    <t>@eduardo68952421 @dudaeix @estevaodays @whoathales @gabrizzzela mano como o felipe neto entrou no assunto kkkkkkkkk tu é muito maluco mano te lasca vai kkkkk</t>
+  </si>
+  <si>
+    <t>não aguento mais ver felipe neto na minha tô, vtnc enfia ele no cu</t>
+  </si>
+  <si>
+    <t>o carinha que trabalha com o felipe neto foi lá na minha loja hj de novo</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/89hvssgtqn</t>
+  </si>
+  <si>
+    <t>2019 e os aliados da causa lgbt são a maísa, o felipe neto e a débora dos falsetes.</t>
+  </si>
+  <si>
+    <t>se vocês elegerem felipe neto pra algum cargo político eu desisto desse país de vez</t>
+  </si>
+  <si>
+    <t>@_victorv_ @theojungc @rickpriess @ayubrazil @tourgran @paulocoelho @felipeneto ne kk a menina fa do felipe neto deu piti pq eu critiquei os vídeos dele kk</t>
+  </si>
+  <si>
+    <t>@samiraclose calma felipe neto</t>
+  </si>
+  <si>
+    <t>minha mãe dizendo pra eu nao assistir felipe neto hmkk agora que eu vou assistie mesmo 🤪</t>
+  </si>
+  <si>
+    <t>caraljo vocês tem noção de que minha amiga deixou de assistir felipe neto pq o meu professor de geografia não gosta dele e ficou falando coisas na aula???? hoje ele ainda tratou ela diferente</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/4hmys5girr</t>
+  </si>
+  <si>
+    <t>a minha maior dúvida é sobre o pq de ser tão interessante saber onde a mãe do felipe neto mora https://t.co/fecmqz5otu</t>
+  </si>
+  <si>
+    <t>@marcospetry5 @hastenreiter_ @caiolincoln_ @japadobolso @felipeneto ta. felipe neto nao ta nesse video nao viu?</t>
+  </si>
+  <si>
+    <t>minha mãe vendo os vídeos do felipe neto o arraso</t>
+  </si>
+  <si>
+    <t>@felipeneto felipe neto sou seu fãn e só queria dizer para vc se despreocupar e se comsemtrar na suas gravações que isto tudo que esta acomtesemdo esta afetando sua alegria nos vídeos ,
+sou muito seu fãn ❤</t>
+  </si>
+  <si>
+    <t>fui compartilhar o bagui do face pra descordar da psicóloga falando coisa sem sentido do felipe neto e a descrição não foi, foi só a notícia ridícula !!! e eu vi só agr 🤦🏻‍♀️🤦🏻‍♀️🤦🏻‍♀️ ainda bem que há tempo de se corrigir</t>
+  </si>
+  <si>
+    <t>um recado para felipe neto e ao porchat! https://t.co/1addesncvk via @you</t>
+  </si>
+  <si>
+    <t>3. felipe neto</t>
+  </si>
+  <si>
+    <t>nunca me liguei em felipe neto, tô fora.</t>
+  </si>
+  <si>
+    <t>paulo coelho e felipe neto, vcs merecem o mundo https://t.co/jq306r8sri</t>
+  </si>
+  <si>
+    <t>minha mãe ta assistindo felipe neto</t>
+  </si>
+  <si>
+    <t>ele poderia ser o nosso filho. 
+nosso felipe. nosso neto.</t>
+  </si>
+  <si>
+    <t>um alerta... 
+só hoje vi algumas pessoas compartilhando essa notícia, o que demonstra uma total falta de informação destes que compartilham...
+todo o... https://t.co/wzsuyahovb</t>
+  </si>
+  <si>
+    <t>escritor paulo coelho e políticos declaram apoio a felipe neto https://t.co/bhufm6qpmm</t>
+  </si>
+  <si>
+    <t>a pior das baixarias contra @felipeneto 
+https://t.co/ocr94g1hvp</t>
+  </si>
+  <si>
+    <t>que ameaças são essas que o felipe neto ta recebendo? não vi nenhuma ate agr</t>
+  </si>
+  <si>
+    <t>aiiin não aguento mais concordar com felipe neto
+todo mundo evoluiii
+https://t.co/syglo6f72l</t>
+  </si>
+  <si>
+    <t>mas quando e o príncipe e a princesa é  lindo ne? deixem de ser hipócritas e melhorem os argumentos de vcs,depois discutam e falem mal do felipe neto!!
+#teamfelipeneto ❤ ele merece todo o apoio do mundo❤</t>
+  </si>
+  <si>
+    <t>@bigsbodisbrasil @rickpriess @ayubrazil @tourgran @_victorv_ @paulocoelho @felipeneto quem vê isso é adulto (ou deveria), se os pais n tem controle (ou n tiveram) do que seus filhos veem no youtube, n é culpa do felipe neto.</t>
+  </si>
+  <si>
+    <t>assuntos da semana:
+felipe neto / bolsonaro 
+aja saco maluco</t>
+  </si>
+  <si>
+    <t>meu pai falando mal do felipe neto kskskskssk</t>
+  </si>
+  <si>
+    <t>@emergrigollette @lilovlog cruz credo, ave maria, livrai-nos desse delinquente demoníaco do felipe neto.</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/c6sdefqanz</t>
+  </si>
+  <si>
+    <t>eu morro com a paola carossela interagindo com o felipe neto e ele cagando pra ela</t>
+  </si>
+  <si>
+    <t>@sweet_pactw então vai tomar no cu felipe neto #mpn #tazercraft</t>
+  </si>
+  <si>
+    <t>felipe neto tá num exagero que chega a doer, pq vcs criaram essa chatice?</t>
+  </si>
+  <si>
+    <t>quem que defende felipe neto pela amor de deus</t>
+  </si>
+  <si>
+    <t>@alexand26711962 não foi bacalhauxocismo mesmo ritual pro brocha do vídeo sentir um pouquinho cheirinho rsrsrs, 
+vamos mandar para jean willlians e felipe neto fazerem!🤣🤣🤣😋</t>
+  </si>
+  <si>
+    <t>tenho lá minhas críticas ao felipe neto. porém, meu irmão de 13 anos, que o assiste, acabou de discutir com um homem de 50 anos, colocando em xeque o pensamento homofóbico dele.</t>
+  </si>
+  <si>
+    <t>meu pai falando pro meu irmão não assistir felipe neto pq é má influência mas ele não disse absolutamente nada quando o garoto tava assistindo um youtuber dizer que toda mulher mente quando denuncia abuso/estupro kjkkk</t>
+  </si>
+  <si>
+    <t>@paolacarosella @felipeneto não querida paola... em 2017 esse tal de  felipe neto comprou uma casa para sua mãe em portugal,  então sempre passa uma temporada por lá.</t>
+  </si>
+  <si>
+    <t>@nesimachado @trunfim 90% dos atques que recebi em defesa do felipe neto foram de bots com a rosinha do pdt</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/pywywxzllh</t>
+  </si>
+  <si>
+    <t>@elvizrezz @felipeneto felipe neto distribuiu 10 mil livros na bienal e isso seria uma coisa muito boa para os jovens não seria !?@felipeneto</t>
+  </si>
+  <si>
+    <t>eles só não matam o felipe neto pq eles sabem que ele tem uma grande influência e eles serão os principais culpados pela morte dele https://t.co/mjopnjg3v6</t>
+  </si>
+  <si>
+    <t>cara minha vó falando pra eu n assistir felipe neto pq ele "tá levando muitos jovens pro q n presta"... nmrl eu desisto</t>
+  </si>
+  <si>
+    <t>@gleisi @felipeneto felipe neto dando palestra sobre educação ???????
+🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>vejo os vídeos do felipe neto, ele sempre com o sorriso no rosto, ele não merece uma vírgula do que está passando</t>
+  </si>
+  <si>
+    <t>@angelitareis5 @jack84474022 a opinião pública tende a ser hipócrita e volátil mesmo, com 'leves' toques de amnésia. poucos são os que têm opinião própria. e o felipe neto sabe se aproveitar disso muito bem.</t>
+  </si>
+  <si>
+    <t>@matheusmrezende @pqsam camarada aqui em casa ta c 11
+passa o dia jogando fortnite e vendo felipe neto</t>
+  </si>
+  <si>
+    <t>ciro gomes vai buscar o modelo bolsonaro para 2022... convidar algumas celebridades para sair em suas chapas para o legislativo como felipe neto, eduardo moreira, gregoriano duviver e outros... tudo golpista arrependido! https://t.co/lywptkv222</t>
+  </si>
+  <si>
+    <t>vcs também leem o paulo coelho dizendo que felipe neto "podia ser nosso filho" em tom de "this could be us, but you playing"?</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/ydfoh8cbth</t>
+  </si>
+  <si>
+    <t>nosso felipe nosso neto</t>
+  </si>
+  <si>
+    <t>me julguem, mas eu não aguento mais tweet desse felipe neto na tl militando</t>
+  </si>
+  <si>
+    <t>@felipeneto eu acho que o felipe neto está procurando levar outro processo</t>
+  </si>
+  <si>
+    <t>eu vi uma postagem de uma ex-colega de trabalho dizendo que proíbe os filhos (já adolescentes) de acessarem o canal do felipe neto.
+ultimamente tenho visto esse posicionamento de alguns pais contra ele e outros influenciadores. aí entram outras questões...</t>
+  </si>
+  <si>
+    <t>o canal do felipe neto não é e nunca foi destinado ao público infantil, o canal do irmão (luccas neto) sim é. e de qualquer forma existe o youtube... https://t.co/9g0eystvw6</t>
+  </si>
+  <si>
+    <t>ninguém se importava com o felipe neto até ele se posicionar contra a homofobia, agora tá saindo gente do boeiro dizendo que ele "não é uma boa influência"</t>
+  </si>
+  <si>
+    <t>@iaconcomics @leitadasl0en @adrianoquites @opropriopontes @moura_101 daqui a pouco tá se aliando com felipe neto</t>
+  </si>
+  <si>
+    <t>felipe neto arrogante rico famoso 😡😡😡😡🥴🥴🥴🥴😧😧😧</t>
+  </si>
+  <si>
+    <t>@alice83862692 que diabo é este tal de felipe neto? nunca tinha ouvido falar?🤔🤔</t>
+  </si>
+  <si>
+    <t>@gleisi @felipeneto felipe neto ? esse coitado metido a intelectual, é um grande hipócrita. fez aquela gracinha na bienal com algum intuito pessoal de se promover a algo lá na frente. não seja otário, esse cara não é bonzinho, é só interesses pessoais vindo ai...</t>
+  </si>
+  <si>
+    <t>sua história em uma reportagem: com erros do passado, com acertos no presente e mostrando o visionário , parabéns @felipeneto 👏🏻👏🏻👏🏻👏🏻👏🏻 https://t.co/if0iytoxct https://t.co/if0iytoxct</t>
+  </si>
+  <si>
+    <t>lista oficial fazenda 2019
+paulo kogos
+arthur esvael
+lord vinheteiro
+nando moura
 felipe neto
-luba 
-neagle
-mulheres:
-nalim
-bela almada
-camila loures
-mariana santos</t>
-  </si>
-  <si>
-    <t>acabei de defender o @felipeneto de uma fake news, e eu nem sou fã do cara, mas vou defender sempre o ato dele na bienal. é nóis felipe neto</t>
-  </si>
-  <si>
-    <t>felipe neto, deixa de ser dissimulado! https://t.co/a802iqdoww via @youtube</t>
-  </si>
-  <si>
-    <t>quem diria que eu ia aplaudir em pé o felipe neto, juro chocada</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/dh5d2kzqkm</t>
-  </si>
-  <si>
-    <t>terra plana, felipe neto, petismo: qual dos 3 assuntos possui o maior nível de demência?</t>
-  </si>
-  <si>
-    <t>@marqueszero felipe neto</t>
-  </si>
-  <si>
-    <t>eu rezo todas as noite para meu filho nao ver esse felipe neto</t>
-  </si>
-  <si>
-    <t>@fabriciodias_ @cirogomes @jujuca1987 era minha segunda opção 
-mas o felipe neto pelo momento e pelo alcance da plataforma dele seria fantástico</t>
-  </si>
-  <si>
-    <t>sempre soube!!! https://t.co/6glf0uy4dq</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/zydpmu1jfo</t>
-  </si>
-  <si>
-    <t>@gleisi @indinhona @felipeneto dá licença hein...felipe neto vivia criticando a "ditadura petista". tá colhendo o que plantou.</t>
-  </si>
-  <si>
-    <t>solano criticaaaaa felipe neto. sabe que eu odeio?? são pessoas que são mente fechada, nem conhece o trabalho dele e fica falando merda. e ainda pior criticando os lgbts @felipeneto https://t.co/1mleyqqutr</t>
-  </si>
-  <si>
-    <t>sentei do lado de um milico e ele tá vendo vídeo do felipe neto, configura resistência?</t>
-  </si>
-  <si>
-    <t>@sofiasantinoo lucas lira e felipe neto</t>
-  </si>
-  <si>
-    <t>felipe neto diz que o bolsonaro tá com med0 dele e por isso não responde... https://t.co/44q7dzttdg via @youtube</t>
-  </si>
-  <si>
-    <t>queria fazer o bolo da julia agora mas sem cacau em pó 
-e o felipe neto não faz nada sobre isso !</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/4a0qsliw23</t>
-  </si>
-  <si>
-    <t>eu achu toooda esses rolê do felipe neto uma fachadaa seeem fim, “aaah mas ele tá conscientizando bastante criança (o público dle hj em dia) a não crescer tão preconceituosa e pá”, pô bacana pras pessoa, “aaah mas ele faz doação e procura ajudar e as pessoas mudam né?” continua+</t>
-  </si>
-  <si>
-    <t>não preciso nem dizer nada! https://t.co/ycwtk7vrvs</t>
-  </si>
-  <si>
-    <t>@lavajato666 @karlava32508121 é?😳
-felipe neto 🖕😠 vtnc</t>
-  </si>
-  <si>
-    <t>a criançada que gosta do felipe neto já vai poder votar nas próximas eleições? #medo 
-o cara já marketando demais, cheiro de candidatura pela "liberdade"
-populismo é uma desgraça!</t>
-  </si>
-  <si>
-    <t>um psicólogo que eu fiz um treinamento maravilhoso compartilhando matéria bolsominion contra felipe neto com todas as fake news possíveis e com a legenda do post "anos de educação e trabalho, pra vir um moleque e deturpar tudo" 😭</t>
-  </si>
-  <si>
-    <t>me irrito com esse negócio do felipe neto</t>
-  </si>
-  <si>
-    <t>@etcontroverso @maurorosa14 esse felipe neto é má influência para os adolescentes e crianças. abriu espaço para que inocentes acessassem conteúdo produzido por pedófilos. disse que não foi a intenção. de boas intenções, o inferno está cheio. um irresponsável desses não merece ser visto por ninguém.</t>
-  </si>
-  <si>
-    <t>@alinetosin bolsonaro é ameaçado 24 hrs, por facções criminosas e esquerdistas, inclusive tomou uma facada, agora felipe neto fala que sofre ameaças, e não mostra nenhuma prova e vem a menina escrever que começo a ditadura, faça me rir.</t>
-  </si>
-  <si>
-    <t>@foxzaox @willsouzafn e o outro felipe neto</t>
-  </si>
-  <si>
-    <t>mano eu amooo o felipe neto vey</t>
-  </si>
-  <si>
-    <t>gente para de reclamar que o felipe neto é "óbvio demais", está fazendo "pela lacração", que saco vocês querem parecer mais inteligentes mas só fazem desserviço reclamando, inacreditável</t>
-  </si>
-  <si>
-    <t>@cdnleon felipe neto fez meu filho virar gay! 
-👇 
-https://t.co/kl8etjsiz4</t>
-  </si>
-  <si>
-    <t>nessa opiniao do felipe neto , eu sou obrigado a concorda . 👏 https://t.co/osjjmf92db</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/1geqyyiy7p</t>
-  </si>
-  <si>
-    <t>meu auge foi ter defendido o felipe neto hoje</t>
-  </si>
-  <si>
-    <t>"estão rindo das ameaças", desabafa felipe neto sobre tirar mãe do brasil - isto - https://t.co/fwfe55cqga</t>
-  </si>
-  <si>
-    <t>@degantunes é so ir la no perfil do felipe neto e xingar ele..de 4 a 7 dias kkkk</t>
-  </si>
-  <si>
-    <t>infelizmente, as fakes news de felipe neto são reais https://t.co/1ffkfjteac</t>
-  </si>
-  <si>
-    <t>se alguém tiver o video dessa psicóloga falando que o felipe neto é uma má influência, por favor, mande na dm.</t>
-  </si>
-  <si>
-    <t>@akemibbh oao, idêntico, só tinha que ser mais birl e usar um óculos estilo felipe neto, usar um jeans e uma camiseta preta</t>
-  </si>
-  <si>
-    <t>@ggreenwald @felipeneto @yeshuah_17 perde um tempinho e pesquisa quem realmente está de posse dessa " fakenews". o felipe neto falou ontem,  que tirou a mãe dele do país .. pesquisa amigo,.ainda dá tempo de não passar vergonha ou ser confundido com um robozinho</t>
-  </si>
-  <si>
-    <t>olha o fã incubado do felipe neto ai gente https://t.co/5pvppyybzs</t>
-  </si>
-  <si>
-    <t>@doisdedosdeteo olha eu não posso dizer q é mentira, porém n acredito em tudo q o felipe neto diz. mas se for verdade ele realmente vai fazer um bo na polícia e deixar provado aí sim eu acreditarei</t>
-  </si>
-  <si>
-    <t>felipe neto a perguntar que não quer calar:
-queres que eu chame os vingadores pra virem te apoiar?
-ou queres que eu chame o pessoal da turma do scooby doo?
-se quiseres também posso mandar chamar as "três espiãs demais."
-toda ajuda é bem vinda quando se está sob ameaça. https://t.co/vyxrc0kljr</t>
-  </si>
-  <si>
-    <t>acompanhei o felipe neto;
-detestei a mudança do felipe neto;
-xinguei o felipe neto;
-concordo com o felipe neto;
-admiro as atitudes do felipe neto;
-apoio o felipe neto;
- o ciclo da minha vida em relação ao felipe neto nos dias de hoje 
-bolsonaro é o caralho</t>
-  </si>
-  <si>
-    <t>felipe neto e o direito de amadurecer https://t.co/ard2xb640j via @youtube</t>
-  </si>
-  <si>
-    <t>@exame quem é felipe neto?</t>
-  </si>
-  <si>
-    <t>felipe neto https://t.co/zncsfgnsju</t>
-  </si>
-  <si>
-    <t>felipe neto é um merda , mas o problema é o celular 24 hrs por dia na mão da criança</t>
-  </si>
-  <si>
-    <t>nessa altura do campeonato farei oq nunca pensei que faria
-seguir o felipe neto e elogiar ele
-as voltas do mundo vei</t>
-  </si>
-  <si>
-    <t>@felipeneto eu nem sei quem é o nando moura e nem quero saber.
-só tenho uma coisa a dizer,felipe neto tudo isso é , recalque viu sucesso e paz pra você 🙏🙏😍</t>
-  </si>
-  <si>
-    <t>felipe neto, deixa de ser dissimulado! https://t.co/ubmxlu9vls via @youtube</t>
-  </si>
-  <si>
-    <t>outra coisa, felipe neto não é para crianças, se vc permite que a sua assista, o irresponsável é vc 😉 https://t.co/j20oh1kcnb</t>
-  </si>
-  <si>
-    <t>pensa nisso especial sobre felipe neto e a censura
-https://t.co/jfrksdfp1a</t>
-  </si>
-  <si>
-    <t>@wilson80728326 @pedruh @ferozcarbon @felipeneto o próprio felipe neto disse que tem a casa desde 2017 (e disse depois que mostraram o vídeo). só estamos falando que a frase “minha mãe teve que sair do país e ficar longe de mim” ficou bem forçada. só isso.</t>
-  </si>
-  <si>
-    <t>mano se podem ameaçar o felipe neto (figura pública) e sairem ilesos imagina oq podem fazer com vc mero rostinho desconhecido</t>
-  </si>
-  <si>
-    <t>o bostinha do felipe neto é culpa da esquerda..
-crise? culpa da esquerda!
-jair presidente? culpa da esquerda!
-reforma da previdência? culpa da esquerda!
-reforma trabalhista? culpa da esquerda!
-amazônia em chamas? culpa da esquerda!
-...</t>
-  </si>
-  <si>
-    <t>o felipe neto tá parecendo o ei nerd nessa foto https://t.co/mkm89wxb21</t>
-  </si>
-  <si>
-    <t>felipe neto corre risco de fato ou é mais uma jogada de marketing? https://t.co/24wizbpn9a</t>
-  </si>
-  <si>
-    <t>não é sobre ser fã ou não do felipe neto. é sobre liberdade de expressão. https://t.co/kryznnvqk4</t>
-  </si>
-  <si>
-    <t>@mariadorosario @felipeneto esse felipe neto e você maria do rosário vocês tem que tomar vergonha na cara tá vocês tem que tomar jeito seus cambadas sem vergonha vocês não tem vergonha na cara</t>
-  </si>
-  <si>
-    <t>agora os fascistinha tao alertando os pais que o felipe neto eh má influência 👍grande dia👍</t>
-  </si>
-  <si>
-    <t>@felipeneto @midianinja fake news? 
-conar tira vídeo de felipe neto do youtube por propaganda irregular
-https://t.co/25rhblqw2s</t>
-  </si>
-  <si>
-    <t>felipe neto é obrigado a mandar a mãe para o exterior após ameaças de morte e desabafa sobre inimigos: “estão rindo” https://t.co/klfbeqbjlx https://t.co/lyavjejghp</t>
-  </si>
-  <si>
-    <t>@carblade @fabiohe2011 @caiolincoln_ @japadobolso @felipeneto ahhh tá! vc acha que isso é fonte? 😂😂😂😂queria ver um vídeo do felipe neto falando isso aí que vc inventou. podexá!</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/ofa29s0zjn</t>
-  </si>
-  <si>
-    <t>assuntos que não podem sair da pauta.
-o hacker da manu.
-o show do palocci.
-a delação do léo pinheiro.
-o choro do felipe neto.
-o choro do glenn.
-a cpi da lava toga.</t>
-  </si>
-  <si>
-    <t>pais não deixam seus filhos assistirem felipe neto pra que eles não possam adquirir opiniões diferentes das suas; eles preferem que seus filhos assistam a luccas pra ficarem imitando uma foca no meio da rua</t>
-  </si>
-  <si>
-    <t>ele poderia ser nosso filho. nosso felipe. nosso neto 
-rt se vc chorou</t>
-  </si>
-  <si>
-    <t>@priscilafcruz @felipeneto me perdoe, priscila. minhas filhas são da geração xuxa também. todas estudaram em colégios públicos e hoje tem pós-graduação.  não generalize, mesmo porque a geração felipe neto ainda está em formação.</t>
-  </si>
-  <si>
-    <t>será q o felipe neto faz terapia</t>
-  </si>
-  <si>
-    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/gurx9yxdh4</t>
-  </si>
-  <si>
-    <t>@ramon_a_santana @jornaloglobo @felipeneto pelo jeito o ramon não tem coragem nem na net, ponto pro felipe neto né</t>
-  </si>
-  <si>
-    <t>felipe neto tem apoio de ampla rede de solidariedade https://t.co/8wcgpml3rj https://t.co/rhhdxr8xjn</t>
-  </si>
-  <si>
-    <t>felipe neto é criticado em rede sociais como : facebook, twitter, pessoas falam mal de felipe neto em que ele dá mals exemplos, youtube ira atualizar e canais infantis irá ficar sem monetização, lucas neto decide desabafar sobre atualização de youtube. https://t.co/6jv3zweobs</t>
-  </si>
-  <si>
-    <t>se chega ao ponto de uma psicóloga alertar sobre o perigo que felipe neto é pra sociedade e para crianças menores,quem somos nós meros mortais pra duvidar.
-vale a pena refletir e muito sobre o que essa psicóloga fala.
-só não vê quem não quer enxergar. https://t.co/6fthxxvqs5</t>
-  </si>
-  <si>
-    <t>velho, as pessoas estão achando normal o felipe neto ter que tirar a própria mãe do brasil por sofrer ameaças de pessoas de extrema direita. sério gente, se você pensa que ameaçar a vida de alguém é normal, ainda mais no âmbito político, procure um psicólogo urgente!</t>
-  </si>
-  <si>
-    <t>felipe neto mandou um vídeo pro luccas... morri</t>
-  </si>
-  <si>
-    <t>odeio essas pessoas que falam mal e mentiras sobre o felipe neto , esse pessoal nao tem nada mais importante para fazer , do que ficar falando mal da vida das pessoas ,para mim voces que critica o felipe neto , vocês tem inveja dele. deixa ele e a familia dele em paz @felipeneto</t>
-  </si>
-  <si>
-    <t>@viiderrotada @pedro_amigo23 @moura_101 @nhewk quanto a isso,o nando moura deixou claro hoje que não sabia do que se tratava.a zoação foi em relação ao texto do paulo coelho.e no mesmo video,o nando moura reservou seu direito de pôr em dúvida a existência dessas ameaças,dado o histórico de mentiras do felipe neto.</t>
-  </si>
-  <si>
-    <t>só se seus filhos forem alienados e não pensarem com a própria cabeça e ir pela opinião dos outros sem se impor e sem pensar sozinho ne https://t.co/poffvtqxdh</t>
-  </si>
-  <si>
-    <t>@chimggukv @_itsjuao @maikecaraio @filhomajeski @moura_101 @nhewk felipe neto tem que admitir que perdeu e se render aos pés de jesus. ele terá muito mais utilidade e relevância unindo-se ao povo de deus em vez de lutar contra ele.
-e para quem ainda não assistiu minha resposta (ainda que indireta) ao felipe neto:
-https://t.co/prceqqncnm</t>
-  </si>
-  <si>
-    <t>felipe neto é o maior marketeiro do br.</t>
-  </si>
-  <si>
-    <t>@aureliosjc tá dureza. tem uma turminha de esquerda feliz pq felipe neto foi ameaçado de morte e mandou a mãe pra fora.</t>
-  </si>
-  <si>
-    <t>2019 e os caras caindo nessa. 50 cent inventou no começo dos anos 2000: começou a falar mal do fat jor por aí, o imbecil respondeu, e o moeda ficou famoso. o youtuber minion anão andou fazendo com o pirulla, cauê, pc e felipe neto. a cada resposta, ficava mais famoso.</t>
-  </si>
-  <si>
-    <t>felipe neto é a demência em pessoa, namoraaal</t>
-  </si>
-  <si>
-    <t>tirou a mãe do brasil com o dinheiro dos trouxas!kkkkkkkk https://t.co/ghjtkgw3c7</t>
-  </si>
-  <si>
-    <t>chamar o felipe neto de petista é demais até pros minions... por favor, parem!</t>
-  </si>
-  <si>
-    <t>meu pai chegou em casa hj proibindo todo mundo de assistir felipe neto
-ok q ngm ia ve isso mesmo
-mas sabemos bem pq ele ta "proibindo" ne mores</t>
-  </si>
-  <si>
-    <t>maaaano kakakkakakakakakaa
-levi pro meu tio bolsomion: e aí, tio tá assistindo felipe neto??? 
-esse menino é muito meu irmão mesmo mds kakkakakakakakakakajkaakajj</t>
-  </si>
-  <si>
-    <t>terminei o livro do felipe neto agora eu tenho um novo livro favorito 
-diario de um banana: rodrick eh o cara me perdoa</t>
-  </si>
-  <si>
-    <t>entrei aq só pra ver qual foi a merda q o felipe neto postou hoje pra ter um pouco de humor o meu dia...</t>
-  </si>
-  <si>
-    <t>gente quem é que deseja a morte do felipe neto???</t>
-  </si>
-  <si>
-    <t>hoje eu tirei o dia pra defender do felipe neto. me julguem.</t>
-  </si>
-  <si>
-    <t>@viiderrotada @pedro_amigo23 @moura_101 @nhewk vale citar também que recentemente,se não me engano,ainda esse ano,o felipe neto disse em seu twitter,baseado em uma matéria do site panfletário dcm,que o nando moura estava sendo processado pelo ministério público,por racismo.</t>
+lolly vomito
+peter do ei nerd
+leon e nilce
+irmãos berti
+tokinho
+matheus canella
+rezendeevil
+esther tigresa</t>
+  </si>
+  <si>
+    <t>@luciano_hang tem que dobrar a meta do felipe neto.</t>
+  </si>
+  <si>
+    <t>kkkkk meu pai ta assistindo felipe neto pela primeira vez e ta cascando o bico, medo dele gostar</t>
+  </si>
+  <si>
+    <t>minha mae disse pra eu nao seguir o felipe neto pq ele "apoia as crianças serem gays" pqp que nojo dela cara</t>
+  </si>
+  <si>
+    <t>@eduardo68952421 @celestzangel @estevaodays @whoathales @gabrizzzela eu juro q n sei aonde vc viu felipe neto nesse tweet pra estar falando desse assunto kkkk como eu já disse, já tá sequelado https://t.co/rpueevblh7</t>
+  </si>
+  <si>
+    <t>@barneytwitch @lucasr3odrigues @floresta_rafael @felipeneto só na mente de gente imbecil, como o felipe neto, q qualquer órgão se sujeitaria a matar pessoas por conta de produtividade agrícola. é um estúpido completo q prega a desinformação e causa pânico pra q os seguidores o achem intelectual</t>
+  </si>
+  <si>
+    <t>@felipeneto alguém aí sabe quem e a mãe do felipe neto? fala verdade... mandou a senhora fazer umas comprinhas na "oropas", não é mesmo?</t>
+  </si>
+  <si>
+    <t>@zehdeabreu felipe neto é um desses que agora se paga de coitado, está colhendo...</t>
+  </si>
+  <si>
+    <t>@felipeneto oque o gato enterra &amp;gt; felipe neto</t>
+  </si>
+  <si>
+    <t>felipe neto e a as restrições da propaganda infantil
+https://t.co/u43tceib6i</t>
+  </si>
+  <si>
+    <t>desde o início eu ja acho isso! péssimo https://t.co/qodxqlgw70</t>
+  </si>
+  <si>
+    <t>por essas e outras que sou contrário a ideologia de gênero. 
+nefasta ideologia que destroi as crianças.
+que tipos como felipe neto vá dormir de conchinha com paulo coelho e deixe as crianças em paz!!!
+ https://t.co/ui9ju3b7h2</t>
+  </si>
+  <si>
+    <t>@bigsbodisbrasil @rickpriess @ayubrazil @tourgran @_victorv_ @paulocoelho @felipeneto controle dos pais. eu digo apenas isso. n é culpa do felipe neto se os pais jogam um celular c youtube na cara dos filhos pra eles n incomodarem. 🤷‍♀️</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/7ekeeaekko</t>
+  </si>
+  <si>
+    <t>putz tão perseguindo o felipe neto pra caralho</t>
+  </si>
+  <si>
+    <t>aposto que essa psicóloga é adepta ou associada a alguma igreja. essa carinha de frustrada sexual não me engana. https://t.co/zyiwjkq7wo</t>
+  </si>
+  <si>
+    <t>@dudaeix @celestzangel @estevaodays @whoathales @gabrizzzela e quem printou o tweet do nando moura foi quem ? exatamente o felipe neto</t>
+  </si>
+  <si>
+    <t>acabei de ler no https://t.co/vi09gx8cj8 https://t.co/w6bpfafvq5</t>
+  </si>
+  <si>
+    <t>seria estranho eu falar que me sinto ridiculamente atraída pelo felipe neto????? https://t.co/cbozuiybn7</t>
+  </si>
+  <si>
+    <t>eu nem sabia da existência desse ser, fiquei sabendo por meio de um aluno. https://t.co/vkencbzw0r</t>
+  </si>
+  <si>
+    <t>@laiscsts aaaaaahahahshahskahs a irmã gêmea de felipe neto meu deus</t>
+  </si>
+  <si>
+    <t>@giannezr felipe neto o anti cristo</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/huvzpeywvr</t>
+  </si>
+  <si>
+    <t>@gleisi @felipeneto brasil está cagando para felipe neto, vergonha do paraná, vai levar marmita para preso!¡!</t>
+  </si>
+  <si>
+    <t>de repente felipe neto passa a ser o herói do brasil... que mundo é esse tão cruel que a gente vive...</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/tyo2slolko</t>
+  </si>
+  <si>
+    <t>quem ousa criticar o reizinho felipe neto perto da giovanna</t>
+  </si>
+  <si>
+    <t>psicóloga faz alerta aos pais sobre o youtuber felipe neto: "péssima influência" - opinião crítica https://t.co/qmenx8f7jd</t>
+  </si>
+  <si>
+    <t>@jtemplario2 @lenoraburgatti @alinetosin aqui. pesquise antes de tentar pagar de debochado.
+https://t.co/4jks1854kr</t>
+  </si>
+  <si>
+    <t>se mais alguém falar mal do felipe neto no meu facebook eu eu vou bloquear td mundo</t>
+  </si>
+  <si>
+    <t>&amp;gt;então surge sua carta coringa: não pagar a dívida externa
+&amp;gt;potêncis s iimperialistas se frustam sob essa atitude e articulam junto a facções criminosas para dar golpe e instaurar um novo presidente
+&amp;gt;na invasão do planalto, o então presidente é morto
+&amp;gt;felipe neto se torna mártir</t>
+  </si>
+  <si>
+    <t>@valdecirdelecl1 @brasil_evolui esse felipe neto se tornou uma pessoa totalmente asquerosa!</t>
+  </si>
+  <si>
+    <t>deixa eu desenhar aqui para o gadolouco! 
+o felipe neto passou anos batendo no pt e nada aconteceu.
+foi só ele cutucar o  psl e asseclas para ter de remover a mãe do brasil por conta das ameaças! 
+deu pra entender agora? https://t.co/m1aerv04vo</t>
   </si>
   <si>
     <t>Ama</t>
   </si>
   <si>
+    <t>Discorda</t>
+  </si>
+  <si>
     <t>Desrelacionado</t>
   </si>
   <si>
+    <t>Concorda</t>
+  </si>
+  <si>
     <t>Odeia</t>
-  </si>
-  <si>
-    <t>Concorda</t>
-  </si>
-  <si>
-    <t>Discorda</t>
   </si>
 </sst>
 </file>
@@ -823,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -839,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -863,7 +845,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -871,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -879,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -895,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -911,7 +893,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -919,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -927,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -935,7 +917,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -943,7 +925,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -951,7 +933,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -983,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -999,7 +981,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1007,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1015,7 +997,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1023,7 +1005,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1031,7 +1013,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1039,7 +1021,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1047,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1079,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1095,7 +1077,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1103,7 +1085,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1119,7 +1101,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1135,7 +1117,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1167,7 +1149,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1175,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1183,7 +1165,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1191,7 +1173,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1223,7 +1205,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1247,7 +1229,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1263,7 +1245,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1271,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1279,7 +1261,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1311,7 +1293,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1335,7 +1317,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1367,7 +1349,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1375,7 +1357,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1391,7 +1373,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1415,7 +1397,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1431,7 +1413,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1455,7 +1437,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1463,7 +1445,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1487,7 +1469,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1495,7 +1477,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1511,7 +1493,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1543,7 +1525,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1551,7 +1533,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:2">
